--- a/20230310 Analysis.xlsx
+++ b/20230310 Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimibit-my.sharepoint.com/personal/marco_antoniotti_unimib_it/Documents/Regolamento Didattica/RDAs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimibit-my.sharepoint.com/personal/marco_antoniotti_unimib_it/Documents/Regolamento Didattica/ITRDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="733" documentId="11_F25DC773A252ABDACC104805E19C64545ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67FF8F17-61F5-4FCB-942A-E057497ED8FA}"/>
+  <xr:revisionPtr revIDLastSave="734" documentId="11_F25DC773A252ABDACC104805E19C64545ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B271550-73D6-49E4-A16E-E361F9F6BFEF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="765" windowWidth="23055" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -893,10 +893,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1165,7 +1161,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
